--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698284.1374652559</v>
+        <v>695552.6411447605</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>261.1934207018295</v>
       </c>
       <c r="E2" t="n">
-        <v>248.2548480706875</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>20.95970596423368</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>220.2298935114885</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>118.9283458032787</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>223.1098859576284</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>221.0706685696819</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.0492085588718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53.43615672840635</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>395.5514412179631</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>38.9190454936702</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>232.8295901847112</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>314.9813656337167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.638843934971</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.69783214044804</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>107.402108275623</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.9815576456764</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.22494343870326</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>171.5573199799892</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>217.6587144826188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.883383057622</v>
+        <v>700.6606409048413</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.92086611721</v>
+        <v>331.6981239644296</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.655167510459</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2620.948981382823</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2620.948981382823</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2620.948981382823</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2620.948981382823</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2620.948981382823</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.483223121743</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.483223121743</v>
+        <v>1087.260480968963</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1803.3088759247</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1434.346358984288</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1076.080660377538</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>690.2924077792936</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>279.3065029896861</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>2189.908715988822</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1623.178216428726</v>
+        <v>784.7603850921982</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.215699488314</v>
+        <v>784.7603850921982</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>784.7603850921982</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>784.7603850921982</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
         <v>372.1660970478549</v>
@@ -4805,22 +4805,22 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>605.9153060956119</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1171.36022515632</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428726</v>
+        <v>1171.36022515632</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.2191917033111</v>
+        <v>410.1044254959879</v>
       </c>
       <c r="C10" t="n">
-        <v>343.2191917033111</v>
+        <v>241.168242568081</v>
       </c>
       <c r="D10" t="n">
-        <v>343.2191917033111</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>343.2191917033111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>818.6962590527281</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>564.0117708468413</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="W10" t="n">
-        <v>564.0117708468413</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="X10" t="n">
-        <v>564.0117708468413</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="Y10" t="n">
-        <v>343.2191917033111</v>
+        <v>591.7528903262277</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5018,10 @@
         <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5121,25 +5121,25 @@
         <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608054</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072585</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>969.5360573714903</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>800.5998744435834</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>650.4832350312477</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>502.5701414488545</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>355.6801939509442</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>188.465999125523</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
         <v>92.81162322608054</v>
@@ -5233,16 +5233,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1668.591243136708</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1379.174073099747</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1151.18452220173</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1151.18452220173</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2338.476105524076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583879</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400697</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400697</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576766</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597663</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1053.171308869726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>884.2351259418192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>734.1184865294834</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>586.2053929470903</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>439.3154454491799</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>272.1193461640599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>130.407515006258</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.601903741513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.612352843496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1234.819773699966</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2273.672861378251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.093381168253</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,31 +7549,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>283.6053239261805</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>230.7984289569018</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-3.860695723495905e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>153.4560068447379</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>166.0080451445651</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>56.69292621882474</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>50.29152613729087</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613729082</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>45.75615765150587</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823196</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.6241777260216</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>41.5425806465924</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>45.04089287986226</v>
+        <v>81.26583631856684</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>9.468966021655376</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1013812.801332607</v>
+        <v>1013812.801332606</v>
       </c>
     </row>
     <row r="9">
@@ -26314,43 +26314,43 @@
         <v>375475.6212503243</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.2998450032</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="H2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="L2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="M2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="M2" t="n">
-        <v>403573.2998450032</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>121077.7614108759</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>5671.003945457393</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26439,22 +26439,22 @@
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="L4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="M4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682784</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-467268.3861622894</v>
+        <v>-467443.6124806986</v>
       </c>
       <c r="C6" t="n">
-        <v>117739.3914056989</v>
+        <v>117739.3914056988</v>
       </c>
       <c r="D6" t="n">
-        <v>-38064.41468809603</v>
+        <v>-38064.41468809589</v>
       </c>
       <c r="E6" t="n">
-        <v>-463793.5350327172</v>
+        <v>-463839.4400282826</v>
       </c>
       <c r="F6" t="n">
-        <v>285320.9703393722</v>
+        <v>285286.2324139362</v>
       </c>
       <c r="G6" t="n">
-        <v>296773.233454413</v>
+        <v>296738.4955289776</v>
       </c>
       <c r="H6" t="n">
-        <v>296773.2334544131</v>
+        <v>296738.4955289773</v>
       </c>
       <c r="I6" t="n">
-        <v>296773.2334544133</v>
+        <v>296738.4955289774</v>
       </c>
       <c r="J6" t="n">
-        <v>120350.0142618204</v>
+        <v>120315.2763363846</v>
       </c>
       <c r="K6" t="n">
-        <v>296773.2334544134</v>
+        <v>296738.4955289774</v>
       </c>
       <c r="L6" t="n">
-        <v>296773.2334544132</v>
+        <v>296738.4955289772</v>
       </c>
       <c r="M6" t="n">
-        <v>175695.4720435374</v>
+        <v>175660.7341181017</v>
       </c>
       <c r="N6" t="n">
-        <v>293696.2160987084</v>
+        <v>293661.4781732727</v>
       </c>
       <c r="O6" t="n">
-        <v>296773.2334544131</v>
+        <v>296738.4955289778</v>
       </c>
       <c r="P6" t="n">
-        <v>296773.2334544132</v>
+        <v>296738.4955289774</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26975,20 +26975,20 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>93.48962091885346</v>
       </c>
       <c r="E2" t="n">
-        <v>133.6755220015743</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>26.4927022196525</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>190.6742840631666</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>148.6604321087871</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.535444793223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>301.2468848922766</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>11.32460452374835</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6964275245421</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>53.43106447338579</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685848</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>367.0024497591021</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>431.4618043636338</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977576</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942258</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
